--- a/resources/images.xlsx
+++ b/resources/images.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>id</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t>artwork</t>
+  </si>
+  <si>
+    <t>logo.png</t>
+  </si>
+  <si>
+    <t>icon</t>
   </si>
 </sst>
 </file>
@@ -289,7 +295,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -347,38 +353,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="11"/>
+          <bgColor indexed="12"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1548,7 +1544,7 @@
     </row>
     <row r="2" ht="15" customHeight="1">
       <c r="A2" s="8">
-        <f t="shared" si="0" ref="A2:A3">ROW()-1</f>
+        <f t="shared" si="0" ref="A2:A4">ROW()-1</f>
         <v>1</v>
       </c>
       <c r="B2" t="s" s="2">
@@ -1607,28 +1603,44 @@
       <c r="J3" s="9"/>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="12"/>
+      <c r="A4" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" t="s" s="7">
+        <f>IF(ISBLANK(D4),B4,D4)</f>
+        <v>16</v>
+      </c>
+      <c r="F4" s="8">
+        <v>500</v>
+      </c>
+      <c r="G4" s="8">
+        <v>182</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="9"/>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="15"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="12"/>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" s="13"/>
@@ -1667,33 +1679,38 @@
       <c r="J8" s="21"/>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="24"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="15"/>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="25"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="27"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="18"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:E3">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal" stopIfTrue="1">
       <formula>$B2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:E4">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal" stopIfTrue="1">
+      <formula>$B4</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/images.xlsx
+++ b/resources/images.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>id</t>
   </si>
@@ -65,6 +65,18 @@
   </si>
   <si>
     <t>icon</t>
+  </si>
+  <si>
+    <t>splash_tablet.png</t>
+  </si>
+  <si>
+    <t>LaunchImage.png</t>
+  </si>
+  <si>
+    <t>tablet_launch_portrait</t>
+  </si>
+  <si>
+    <t>iphone_launch_portrait</t>
   </si>
 </sst>
 </file>
@@ -179,7 +191,9 @@
       <top style="thin">
         <color indexed="8"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -188,6 +202,41 @@
       <top style="thin">
         <color indexed="8"/>
       </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -197,7 +246,7 @@
         <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="10"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -258,37 +307,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -366,15 +384,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="11"/>
-          <bgColor indexed="12"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1544,7 +1554,7 @@
     </row>
     <row r="2" ht="15" customHeight="1">
       <c r="A2" s="8">
-        <f t="shared" si="0" ref="A2:A4">ROW()-1</f>
+        <f t="shared" si="0" ref="A2:A6">ROW()-1</f>
         <v>1</v>
       </c>
       <c r="B2" t="s" s="2">
@@ -1631,86 +1641,117 @@
       <c r="J4" s="9"/>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="12"/>
+      <c r="A5" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s" s="7">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s" s="7">
+        <f>IF(ISBLANK(D5),B5,D5)</f>
+        <v>19</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1536</v>
+      </c>
+      <c r="G5" s="8">
+        <v>2048</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="9"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="15"/>
+      <c r="A6" s="8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s" s="7">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s" s="7">
+        <f>IF(ISBLANK(D6),B6,D6)</f>
+        <v>19</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1536</v>
+      </c>
+      <c r="G6" s="8">
+        <v>2048</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="18"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="12"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="21"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="15"/>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="15"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="18"/>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="18"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="21"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:E3">
+  <conditionalFormatting sqref="D2:E6">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal" stopIfTrue="1">
       <formula>$B2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4:E4">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal" stopIfTrue="1">
-      <formula>$B4</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
